--- a/db/scenes.xlsx
+++ b/db/scenes.xlsx
@@ -5,12 +5,14 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Scenes" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Objects" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Containers" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="TileSets" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Objects" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Containers" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Inventory" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -22,24 +24,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="75">
   <si>
     <t xml:space="preserve">Scene</t>
   </si>
   <si>
-    <t xml:space="preserve">Image</t>
-  </si>
-  <si>
     <t xml:space="preserve">TiledMap</t>
   </si>
   <si>
     <t xml:space="preserve">Scene1</t>
   </si>
   <si>
+    <t xml:space="preserve">TiledMap2.json</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TileSet</t>
+  </si>
+  <si>
     <t xml:space="preserve">tmw_desert_spacing.png</t>
   </si>
   <si>
-    <t xml:space="preserve">TiledMap2.json</t>
+    <t xml:space="preserve">new_atlas.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Untitled.png</t>
   </si>
   <si>
     <t xml:space="preserve">Name</t>
@@ -187,6 +195,60 @@
   </si>
   <si>
     <t xml:space="preserve">Cannot search</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Skill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mushroom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gift</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A large, flat mushroom. Would be delicious grilled.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GoldCash</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A few gleaming gold coins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BluePotion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enchantment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A murky blue liquid. It bubbles slightly when shaken</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GreenPotion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A clear green liquid. Smoke rises from the top.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BlueWand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GreenWand</t>
   </si>
 </sst>
 </file>
@@ -283,18 +345,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.89"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.89"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -304,19 +365,13 @@
       <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="0" t="s">
         <v>3</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -335,9 +390,70 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.58"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -355,36 +471,36 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E2" s="0" t="n">
         <v>32</v>
@@ -393,44 +509,44 @@
         <v>32</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C3" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="G3" s="0" t="s">
         <v>17</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="0" t="n">
-        <v>32</v>
-      </c>
-      <c r="F3" s="0" t="n">
-        <v>32</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E4" s="0" t="n">
         <v>32</v>
@@ -439,21 +555,21 @@
         <v>32</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E5" s="0" t="n">
         <v>32</v>
@@ -462,21 +578,21 @@
         <v>32</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E6" s="0" t="n">
         <v>32</v>
@@ -485,21 +601,21 @@
         <v>32</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E7" s="0" t="n">
         <v>32</v>
@@ -508,21 +624,21 @@
         <v>32</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E8" s="0" t="n">
         <v>32</v>
@@ -531,21 +647,21 @@
         <v>32</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E9" s="0" t="n">
         <v>32</v>
@@ -554,7 +670,7 @@
         <v>32</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -568,7 +684,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -590,16 +706,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -607,13 +723,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -621,13 +737,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -635,13 +751,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C4" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="0" t="s">
         <v>45</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -649,13 +765,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -663,13 +779,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -677,13 +793,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -691,13 +807,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -705,13 +821,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -723,4 +839,111 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="45.98"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/db/scenes.xlsx
+++ b/db/scenes.xlsx
@@ -5,14 +5,13 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Scenes" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="TileSets" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="Objects" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="Containers" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="Inventory" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -24,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="57">
   <si>
     <t xml:space="preserve">Scene</t>
   </si>
@@ -195,60 +194,6 @@
   </si>
   <si>
     <t xml:space="preserve">Cannot search</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Class</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Skill</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mushroom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gift</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A large, flat mushroom. Would be delicious grilled.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GoldCash</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A few gleaming gold coins</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BluePotion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enchantment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A murky blue liquid. It bubbles slightly when shaken</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GreenPotion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A clear green liquid. Smoke rises from the top.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BlueWand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buff</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GreenWand</t>
   </si>
 </sst>
 </file>
@@ -691,7 +636,7 @@
   </sheetPr>
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -839,111 +784,4 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:E7"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="45.98"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="11.52"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>73</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
 </file>
--- a/db/scenes.xlsx
+++ b/db/scenes.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Scenes" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="63">
   <si>
     <t xml:space="preserve">Scene</t>
   </si>
@@ -37,16 +37,34 @@
     <t xml:space="preserve">TiledMap2.json</t>
   </si>
   <si>
+    <t xml:space="preserve">Scene2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TiledMap1.json</t>
+  </si>
+  <si>
     <t xml:space="preserve">TileSet</t>
   </si>
   <si>
+    <t xml:space="preserve">Reference</t>
+  </si>
+  <si>
     <t xml:space="preserve">tmw_desert_spacing.png</t>
   </si>
   <si>
+    <t xml:space="preserve">tmw_desert_spacing</t>
+  </si>
+  <si>
     <t xml:space="preserve">new_atlas.png</t>
   </si>
   <si>
+    <t xml:space="preserve">Characters</t>
+  </si>
+  <si>
     <t xml:space="preserve">Untitled.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Objects</t>
   </si>
   <si>
     <t xml:space="preserve">Name</t>
@@ -290,10 +308,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -317,6 +335,14 @@
       </c>
       <c r="B2" s="0" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -337,47 +363,46 @@
   </sheetPr>
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.58"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.58"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -396,226 +421,198 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
+      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.31"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.35"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.31"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.35"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>16</v>
+        <v>22</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>32</v>
       </c>
       <c r="E2" s="0" t="n">
         <v>32</v>
       </c>
-      <c r="F2" s="0" t="n">
-        <v>32</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>17</v>
+      <c r="F2" s="0" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>20</v>
+        <v>26</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>32</v>
       </c>
       <c r="E3" s="0" t="n">
         <v>32</v>
       </c>
-      <c r="F3" s="0" t="n">
-        <v>32</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>17</v>
+      <c r="F3" s="0" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="F4" s="0" t="s">
         <v>23</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <v>32</v>
-      </c>
-      <c r="F4" s="0" t="n">
-        <v>32</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>26</v>
+        <v>32</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>32</v>
       </c>
       <c r="E5" s="0" t="n">
         <v>32</v>
       </c>
-      <c r="F5" s="0" t="n">
-        <v>32</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>17</v>
+      <c r="F5" s="0" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>29</v>
+        <v>35</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>32</v>
       </c>
       <c r="E6" s="0" t="n">
         <v>32</v>
       </c>
-      <c r="F6" s="0" t="n">
-        <v>32</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>17</v>
+      <c r="F6" s="0" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="0" t="n">
         <v>32</v>
       </c>
       <c r="E7" s="0" t="n">
         <v>32</v>
       </c>
-      <c r="F7" s="0" t="n">
-        <v>32</v>
-      </c>
-      <c r="G7" s="0" t="s">
-        <v>33</v>
+      <c r="F7" s="0" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>36</v>
+        <v>42</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>32</v>
       </c>
       <c r="E8" s="0" t="n">
         <v>32</v>
       </c>
-      <c r="F8" s="0" t="n">
-        <v>32</v>
-      </c>
-      <c r="G8" s="0" t="s">
-        <v>17</v>
+      <c r="F8" s="0" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>39</v>
+        <v>45</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>32</v>
       </c>
       <c r="E9" s="0" t="n">
         <v>32</v>
       </c>
-      <c r="F9" s="0" t="n">
-        <v>32</v>
-      </c>
-      <c r="G9" s="0" t="s">
-        <v>17</v>
+      <c r="F9" s="0" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -636,7 +633,7 @@
   </sheetPr>
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -651,16 +648,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -668,13 +665,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -682,13 +679,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -696,13 +693,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -710,13 +707,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -724,13 +721,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -738,13 +735,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -752,13 +749,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -766,13 +763,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
